--- a/src/test/resources/TestData/SriMandir.xlsx
+++ b/src/test/resources/TestData/SriMandir.xlsx
@@ -14,42 +14,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Aries</t>
   </si>
   <si>
+    <t>action_bar_root</t>
+  </si>
+  <si>
     <t>Taurus</t>
   </si>
   <si>
+    <t>drawer_layout</t>
+  </si>
+  <si>
     <t>Gemini</t>
   </si>
   <si>
+    <t>coordinatorLayout</t>
+  </si>
+  <si>
     <t>Cancer</t>
   </si>
   <si>
+    <t>container</t>
+  </si>
+  <si>
     <t>Leo</t>
   </si>
   <si>
+    <t>linear_root</t>
+  </si>
+  <si>
     <t>Virgo</t>
   </si>
   <si>
+    <t>tab_bar</t>
+  </si>
+  <si>
     <t>Libra</t>
   </si>
   <si>
+    <t>shadow_top</t>
+  </si>
+  <si>
     <t>Scorpio</t>
   </si>
   <si>
+    <t>mahabhandar_vp_container</t>
+  </si>
+  <si>
     <t>Sagittarius</t>
   </si>
   <si>
+    <t>appBarLayouts</t>
+  </si>
+  <si>
     <t>Capricon</t>
   </si>
   <si>
+    <t>collapsing_toolbar</t>
+  </si>
+  <si>
     <t>Aquarius</t>
   </si>
   <si>
+    <t>hamburger_menu</t>
+  </si>
+  <si>
     <t>Pisces</t>
+  </si>
+  <si>
+    <t>menu_left</t>
+  </si>
+  <si>
+    <t>menu_title</t>
+  </si>
+  <si>
+    <t>menu_profile</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>iv_line</t>
+  </si>
+  <si>
+    <t>tv_title</t>
+  </si>
+  <si>
+    <t>tv_sign_selector</t>
+  </si>
+  <si>
+    <t>tv_title1</t>
+  </si>
+  <si>
+    <t>iv_speak_out</t>
+  </si>
+  <si>
+    <t>iv_help_text</t>
+  </si>
+  <si>
+    <t>iv_line2</t>
+  </si>
+  <si>
+    <t>tv_title2</t>
+  </si>
+  <si>
+    <t>tv_shubhMantra_title</t>
+  </si>
+  <si>
+    <t>tv_shubMantra_desc</t>
+  </si>
+  <si>
+    <t>iv_arrow_right</t>
+  </si>
+  <si>
+    <t>card_image</t>
+  </si>
+  <si>
+    <t>card_shubh_mantra</t>
+  </si>
+  <si>
+    <t>divider</t>
+  </si>
+  <si>
+    <t>nav_view</t>
+  </si>
+  <si>
+    <t>navigation_home</t>
+  </si>
+  <si>
+    <t>navigation_main_mandir</t>
+  </si>
+  <si>
+    <t>navigation_mahabhandar</t>
+  </si>
+  <si>
+    <t>navigation_social</t>
+  </si>
+  <si>
+    <t>fab_share</t>
+  </si>
+  <si>
+    <t>navigation_music_player</t>
+  </si>
+  <si>
+    <t>iv_line3</t>
+  </si>
+  <si>
+    <t>tv_title3</t>
+  </si>
+  <si>
+    <t>tv_offerings_title</t>
+  </si>
+  <si>
+    <t>tv_offerings_desc</t>
+  </si>
+  <si>
+    <t>iv_arrow_right_offerings</t>
+  </si>
+  <si>
+    <t>iv_header</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>ll_title</t>
+  </si>
+  <si>
+    <t>sub_title</t>
+  </si>
+  <si>
+    <t>cta_whatsapp_share</t>
+  </si>
+  <si>
+    <t>toolbar</t>
+  </si>
+  <si>
+    <t>iv_line_toolbar</t>
+  </si>
+  <si>
+    <t>tv_title_toolbar</t>
   </si>
 </sst>
 </file>
@@ -57,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -71,53 +218,91 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,30 +317,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,54 +354,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,187 +377,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,26 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,6 +603,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -473,11 +621,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,181 +651,175 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,75 +1139,298 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="20.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/SriMandir.xlsx
+++ b/src/test/resources/TestData/SriMandir.xlsx
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
